--- a/Framework/TestData/TestData.xlsx
+++ b/Framework/TestData/TestData.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,12 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>jorox86677@ecofreon.com</t>
   </si>
   <si>
     <t>Password@1234</t>
+  </si>
+  <si>
+    <t>bavevah307@idrct.com</t>
   </si>
 </sst>
 </file>
@@ -354,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -370,13 +372,21 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
